--- a/Data/raw/spring_rye_weed_biomass_2025.xlsx
+++ b/Data/raw/spring_rye_weed_biomass_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://api.box.com/wopi/files/1941698082133/WOPIServiceId_TP_BOX_2/WOPIUserId_-/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/False-Seed-Bed-Trial/Data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{56A3058C-1710-9645-8754-DB030F5B3970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{754D7FAC-75FC-CA4F-B3FA-9C99866EC530}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F122EAE5-F027-5140-AAF5-2FB1CE947883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19120" yWindow="-27860" windowWidth="34160" windowHeight="27160" xr2:uid="{3C250779-8860-7545-A5ED-1758FA5AC523}"/>
+    <workbookView xWindow="17920" yWindow="-28300" windowWidth="34160" windowHeight="27160" xr2:uid="{3C250779-8860-7545-A5ED-1758FA5AC523}"/>
   </bookViews>
   <sheets>
     <sheet name="rye_weed_biomass" sheetId="1" r:id="rId1"/>
@@ -384,8 +384,140 @@
     <t>low</t>
   </si>
   <si>
+    <t>yellow_woodsorrel</t>
+  </si>
+  <si>
+    <t>purslane_speedwell</t>
+  </si>
+  <si>
+    <t>scarlet_pimperel</t>
+  </si>
+  <si>
+    <t>roughstalk_bluegrass</t>
+  </si>
+  <si>
+    <t>canada_goldenrod</t>
+  </si>
+  <si>
+    <t>common_dandelion</t>
+  </si>
+  <si>
+    <t>annual_fleabane</t>
+  </si>
+  <si>
+    <t>yellow_foxtail</t>
+  </si>
+  <si>
+    <t>black_medic</t>
+  </si>
+  <si>
+    <t>hawkweed_oxtongue</t>
+  </si>
+  <si>
+    <t>broadleaf_plantain</t>
+  </si>
+  <si>
+    <t>ladysthumb</t>
+  </si>
+  <si>
+    <t>red_clover</t>
+  </si>
+  <si>
+    <t>hairy_vetch</t>
+  </si>
+  <si>
+    <t>canada_thistle</t>
+  </si>
+  <si>
+    <t>mouse-ear_chickweed</t>
+  </si>
+  <si>
+    <t>giant_foxtail</t>
+  </si>
+  <si>
+    <t>witchgrass</t>
+  </si>
+  <si>
+    <t>common_ragweed</t>
+  </si>
+  <si>
+    <t>common_chickweed</t>
+  </si>
+  <si>
+    <t>yellow_nutsedge</t>
+  </si>
+  <si>
+    <t>slender_rush</t>
+  </si>
+  <si>
+    <t>yellow_cress</t>
+  </si>
+  <si>
+    <t>prostrate_knotweed</t>
+  </si>
+  <si>
+    <t>spiny_sowthistle</t>
+  </si>
+  <si>
+    <t>coltsfoot</t>
+  </si>
+  <si>
+    <t>purple_loosestrife</t>
+  </si>
+  <si>
+    <t>grass_leaved_goldenrod</t>
+  </si>
+  <si>
+    <t>hedge_bindweed</t>
+  </si>
+  <si>
+    <t>persia_speedwell</t>
+  </si>
+  <si>
+    <t>perennial_sowthistle</t>
+  </si>
+  <si>
+    <t>smooth_bedstraw</t>
+  </si>
+  <si>
+    <t>corn _speedwell</t>
+  </si>
+  <si>
+    <t>indian_tobacco</t>
+  </si>
+  <si>
+    <t>philadelphia_fleabane</t>
+  </si>
+  <si>
+    <t>annual_ryegrass</t>
+  </si>
+  <si>
+    <t>kentucky_bluegrass</t>
+  </si>
+  <si>
+    <t>annual_bluegrass</t>
+  </si>
+  <si>
+    <t>common_groundsel</t>
+  </si>
+  <si>
+    <t>wild_buckwheat</t>
+  </si>
+  <si>
+    <t>smooth_goldenrod</t>
+  </si>
+  <si>
+    <t>horseweed</t>
+  </si>
+  <si>
+    <t>shepherd's-purse</t>
+  </si>
+  <si>
+    <t>plot_id</t>
+  </si>
+  <si>
     <r>
-      <t>rye_biomass_g_0.25m</t>
+      <t>rye_biomass_g_0.5m</t>
     </r>
     <r>
       <rPr>
@@ -398,139 +530,7 @@
     </r>
   </si>
   <si>
-    <t>yellow_woodsorrel</t>
-  </si>
-  <si>
-    <t>purslane_speedwell</t>
-  </si>
-  <si>
-    <t>scarlet_pimperel</t>
-  </si>
-  <si>
-    <t>roughstalk_bluegrass</t>
-  </si>
-  <si>
-    <t>canada_goldenrod</t>
-  </si>
-  <si>
-    <t>common_dandelion</t>
-  </si>
-  <si>
-    <t>annual_fleabane</t>
-  </si>
-  <si>
-    <t>yellow_foxtail</t>
-  </si>
-  <si>
-    <t>black_medic</t>
-  </si>
-  <si>
-    <t>hawkweed_oxtongue</t>
-  </si>
-  <si>
-    <t>broadleaf_plantain</t>
-  </si>
-  <si>
-    <t>ladysthumb</t>
-  </si>
-  <si>
-    <t>red_clover</t>
-  </si>
-  <si>
-    <t>hairy_vetch</t>
-  </si>
-  <si>
-    <t>canada_thistle</t>
-  </si>
-  <si>
-    <t>mouse-ear_chickweed</t>
-  </si>
-  <si>
-    <t>giant_foxtail</t>
-  </si>
-  <si>
-    <t>witchgrass</t>
-  </si>
-  <si>
-    <t>common_ragweed</t>
-  </si>
-  <si>
-    <t>common_chickweed</t>
-  </si>
-  <si>
-    <t>yellow_nutsedge</t>
-  </si>
-  <si>
-    <t>slender_rush</t>
-  </si>
-  <si>
-    <t>yellow_cress</t>
-  </si>
-  <si>
-    <t>prostrate_knotweed</t>
-  </si>
-  <si>
-    <t>spiny_sowthistle</t>
-  </si>
-  <si>
-    <t>coltsfoot</t>
-  </si>
-  <si>
-    <t>purple_loosestrife</t>
-  </si>
-  <si>
-    <t>grass_leaved_goldenrod</t>
-  </si>
-  <si>
-    <t>hedge_bindweed</t>
-  </si>
-  <si>
-    <t>persia_speedwell</t>
-  </si>
-  <si>
-    <t>perennial_sowthistle</t>
-  </si>
-  <si>
-    <t>smooth_bedstraw</t>
-  </si>
-  <si>
-    <t>corn _speedwell</t>
-  </si>
-  <si>
-    <t>indian_tobacco</t>
-  </si>
-  <si>
-    <t>philadelphia_fleabane</t>
-  </si>
-  <si>
-    <t>annual_ryegrass</t>
-  </si>
-  <si>
-    <t>kentucky_bluegrass</t>
-  </si>
-  <si>
-    <t>annual_bluegrass</t>
-  </si>
-  <si>
-    <t>common_groundsel</t>
-  </si>
-  <si>
-    <t>wild_buckwheat</t>
-  </si>
-  <si>
-    <t>smooth_goldenrod</t>
-  </si>
-  <si>
-    <t>horseweed</t>
-  </si>
-  <si>
-    <t>shepherd's-purse</t>
-  </si>
-  <si>
-    <t>total_weed_biomass</t>
-  </si>
-  <si>
-    <t>plot_id</t>
+    <t>total_weed_biomass_g_0.5m2</t>
   </si>
 </sst>
 </file>
@@ -924,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF1BB24-72C5-2A4B-80CC-D4A582151731}">
   <dimension ref="A1:BA89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BA2" sqref="BA2"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="BA1" sqref="BA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -976,7 +976,7 @@
   <sheetData>
     <row r="1" spans="1:53" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1000,139 +1000,139 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N1" t="s">
+        <v>111</v>
+      </c>
+      <c r="O1" t="s">
+        <v>105</v>
+      </c>
+      <c r="P1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>126</v>
+      </c>
+      <c r="R1" t="s">
+        <v>120</v>
+      </c>
+      <c r="S1" t="s">
+        <v>106</v>
+      </c>
+      <c r="T1" t="s">
+        <v>139</v>
+      </c>
+      <c r="U1" t="s">
+        <v>119</v>
+      </c>
+      <c r="V1" t="s">
+        <v>133</v>
+      </c>
+      <c r="W1" t="s">
+        <v>117</v>
+      </c>
+      <c r="X1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ1" t="s">
         <v>101</v>
       </c>
-      <c r="J1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K1" t="s">
-        <v>108</v>
-      </c>
-      <c r="L1" t="s">
-        <v>137</v>
-      </c>
-      <c r="M1" t="s">
-        <v>110</v>
-      </c>
-      <c r="N1" t="s">
-        <v>112</v>
-      </c>
-      <c r="O1" t="s">
-        <v>106</v>
-      </c>
-      <c r="P1" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>127</v>
-      </c>
-      <c r="R1" t="s">
-        <v>121</v>
-      </c>
-      <c r="S1" t="s">
-        <v>107</v>
-      </c>
-      <c r="T1" t="s">
-        <v>140</v>
-      </c>
-      <c r="U1" t="s">
-        <v>120</v>
-      </c>
-      <c r="V1" t="s">
-        <v>134</v>
-      </c>
-      <c r="W1" t="s">
-        <v>118</v>
-      </c>
-      <c r="X1" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>102</v>
-      </c>
       <c r="BA1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.2">
@@ -1178,6 +1178,10 @@
       <c r="AX2">
         <v>1E-3</v>
       </c>
+      <c r="BA2">
+        <f>SUM(J2:AZ2)</f>
+        <v>8.3819999999999979</v>
+      </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1228,6 +1232,10 @@
       <c r="AZ3">
         <v>1E-3</v>
       </c>
+      <c r="BA3">
+        <f t="shared" ref="BA3:BA66" si="0">SUM(J3:AZ3)</f>
+        <v>9.7139999999999986</v>
+      </c>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1263,6 +1271,10 @@
       <c r="AX4">
         <v>1E-3</v>
       </c>
+      <c r="BA4">
+        <f t="shared" si="0"/>
+        <v>2.1509999999999998</v>
+      </c>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -1298,6 +1310,10 @@
       <c r="AH5">
         <v>1E-3</v>
       </c>
+      <c r="BA5">
+        <f t="shared" si="0"/>
+        <v>2E-3</v>
+      </c>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -1336,6 +1352,10 @@
       <c r="AZ6">
         <v>1E-3</v>
       </c>
+      <c r="BA6">
+        <f t="shared" si="0"/>
+        <v>0.34200000000000003</v>
+      </c>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1377,6 +1397,10 @@
       <c r="AM7">
         <v>1E-3</v>
       </c>
+      <c r="BA7">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -1415,6 +1439,10 @@
       <c r="AE8">
         <v>1E-3</v>
       </c>
+      <c r="BA8">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -1453,6 +1481,10 @@
       <c r="S9">
         <v>1.32</v>
       </c>
+      <c r="BA9">
+        <f t="shared" si="0"/>
+        <v>1.3220000000000001</v>
+      </c>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -1491,6 +1523,10 @@
       <c r="AZ10">
         <v>1E-3</v>
       </c>
+      <c r="BA10">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1523,6 +1559,10 @@
       <c r="R11">
         <v>1E-3</v>
       </c>
+      <c r="BA11">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -1570,6 +1610,10 @@
       <c r="AZ12">
         <v>0.65</v>
       </c>
+      <c r="BA12">
+        <f t="shared" si="0"/>
+        <v>22.751000000000001</v>
+      </c>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1620,6 +1664,10 @@
       <c r="AZ13">
         <v>1E-3</v>
       </c>
+      <c r="BA13">
+        <f t="shared" si="0"/>
+        <v>8.2739999999999974</v>
+      </c>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -1655,6 +1703,10 @@
       <c r="AM14">
         <v>1E-3</v>
       </c>
+      <c r="BA14">
+        <f t="shared" si="0"/>
+        <v>2E-3</v>
+      </c>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -1687,6 +1739,10 @@
       <c r="S15">
         <v>3.42</v>
       </c>
+      <c r="BA15">
+        <f t="shared" si="0"/>
+        <v>3.42</v>
+      </c>
     </row>
     <row r="16" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -1719,8 +1775,12 @@
       <c r="S16">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA16">
+        <f t="shared" si="0"/>
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1751,8 +1811,12 @@
       <c r="S17">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA17">
+        <f t="shared" si="0"/>
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1786,8 +1850,12 @@
       <c r="AM18">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA18">
+        <f t="shared" si="0"/>
+        <v>1.2109999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1821,8 +1889,12 @@
       <c r="AJ19">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA19">
+        <f t="shared" si="0"/>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1853,8 +1925,12 @@
       <c r="S20">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA20">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1882,8 +1958,12 @@
       <c r="I21">
         <v>71.83</v>
       </c>
-    </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1920,8 +2000,12 @@
       <c r="AX22">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA22">
+        <f t="shared" si="0"/>
+        <v>3.6309999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1961,8 +2045,12 @@
       <c r="AZ23">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA23">
+        <f t="shared" si="0"/>
+        <v>18.332000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -2002,8 +2090,12 @@
       <c r="AZ24">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA24">
+        <f t="shared" si="0"/>
+        <v>1.6519999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -2049,8 +2141,12 @@
       <c r="AZ25">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA25">
+        <f t="shared" si="0"/>
+        <v>15.691999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -2084,8 +2180,12 @@
       <c r="AZ26">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA26">
+        <f t="shared" si="0"/>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -2119,8 +2219,12 @@
       <c r="AZ27">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA27">
+        <f t="shared" si="0"/>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -2157,8 +2261,12 @@
       <c r="AX28">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA28">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -2189,8 +2297,12 @@
       <c r="AM29">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA29">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -2227,8 +2339,12 @@
       <c r="AZ30">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA30">
+        <f t="shared" si="0"/>
+        <v>2.1119999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -2265,8 +2381,12 @@
       <c r="AM31">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA31">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -2303,8 +2423,12 @@
       <c r="AM32">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA32">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -2335,8 +2459,12 @@
       <c r="AU33">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA33">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -2367,8 +2495,12 @@
       <c r="N34">
         <v>0.81</v>
       </c>
-    </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA34">
+        <f t="shared" si="0"/>
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -2417,8 +2549,12 @@
       <c r="AZ35">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA35">
+        <f t="shared" si="0"/>
+        <v>6.0830000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -2458,8 +2594,12 @@
       <c r="AY36">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA36">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -2490,8 +2630,12 @@
       <c r="U37">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA37">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -2522,8 +2666,12 @@
       <c r="U38">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="39" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA38">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -2557,8 +2705,12 @@
       <c r="AE39">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="40" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA39">
+        <f t="shared" si="0"/>
+        <v>0.56100000000000005</v>
+      </c>
+    </row>
+    <row r="40" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -2589,8 +2741,12 @@
       <c r="AZ40">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="41" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA40">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -2627,8 +2783,12 @@
       <c r="AX41">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="42" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA41">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -2668,8 +2828,12 @@
       <c r="AX42">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="43" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA42">
+        <f t="shared" si="0"/>
+        <v>0.46300000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -2700,8 +2864,12 @@
       <c r="AX43">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="44" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA43">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -2735,8 +2903,12 @@
       <c r="AM44">
         <v>17.73</v>
       </c>
-    </row>
-    <row r="45" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA44">
+        <f t="shared" si="0"/>
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -2776,8 +2948,12 @@
       <c r="AZ45">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA45">
+        <f t="shared" si="0"/>
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -2820,8 +2996,12 @@
       <c r="AZ46">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="47" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA46">
+        <f t="shared" si="0"/>
+        <v>0.79299999999999993</v>
+      </c>
+    </row>
+    <row r="47" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -2867,8 +3047,12 @@
       <c r="AZ47">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="48" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA47">
+        <f t="shared" si="0"/>
+        <v>4.2319999999999993</v>
+      </c>
+    </row>
+    <row r="48" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -2899,8 +3083,12 @@
       <c r="AX48">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="49" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA48">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -2934,8 +3122,12 @@
       <c r="AX49">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="50" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA49">
+        <f t="shared" si="0"/>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -2966,8 +3158,12 @@
       <c r="AZ50">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="51" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA50">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -3010,8 +3206,12 @@
       <c r="AZ51">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="52" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA51">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -3042,8 +3242,12 @@
       <c r="AZ52">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="53" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA52">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -3077,8 +3281,12 @@
       <c r="AM53">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="54" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA53">
+        <f t="shared" si="0"/>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -3118,8 +3326,12 @@
       <c r="AL54">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="55" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA54">
+        <f t="shared" si="0"/>
+        <v>1.0129999999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -3156,8 +3368,12 @@
       <c r="AZ55">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="56" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA55">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -3203,8 +3419,12 @@
       <c r="AZ56">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="57" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA56">
+        <f t="shared" si="0"/>
+        <v>2.7829999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -3247,8 +3467,12 @@
       <c r="AZ57">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="58" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA57">
+        <f t="shared" si="0"/>
+        <v>8.1000000000000014</v>
+      </c>
+    </row>
+    <row r="58" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -3282,8 +3506,12 @@
       <c r="AZ58">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="59" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA58">
+        <f t="shared" si="0"/>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -3317,8 +3545,12 @@
       <c r="AM59">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="60" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA59">
+        <f t="shared" si="0"/>
+        <v>0.76100000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -3355,8 +3587,12 @@
       <c r="AY60">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="61" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA60">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -3390,8 +3626,12 @@
       <c r="AE61">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="62" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA61">
+        <f t="shared" si="0"/>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -3422,8 +3662,12 @@
       <c r="AM62">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="63" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA62">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -3454,8 +3698,12 @@
       <c r="AM63">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="64" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA63">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -3492,8 +3740,12 @@
       <c r="AY64">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="65" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA64">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -3530,8 +3782,12 @@
       <c r="AV65">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="66" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA65">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -3580,8 +3836,12 @@
       <c r="AZ66">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="67" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA66">
+        <f t="shared" si="0"/>
+        <v>10.003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -3618,8 +3878,12 @@
       <c r="AZ67">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="68" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA67">
+        <f t="shared" ref="BA67:BA89" si="1">SUM(J67:AZ67)</f>
+        <v>1.2219999999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -3665,8 +3929,12 @@
       <c r="AZ68">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="69" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA68">
+        <f t="shared" si="1"/>
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -3712,8 +3980,12 @@
       <c r="AZ69">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="70" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA69">
+        <f t="shared" si="1"/>
+        <v>3.2129999999999996</v>
+      </c>
+    </row>
+    <row r="70" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -3750,8 +4022,12 @@
       <c r="AX70">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="71" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA70">
+        <f t="shared" si="1"/>
+        <v>1.3319999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -3785,8 +4061,12 @@
       <c r="AZ71">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="72" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA71">
+        <f t="shared" si="1"/>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -3820,8 +4100,12 @@
       <c r="AX72">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="73" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA72">
+        <f t="shared" si="1"/>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -3852,8 +4136,12 @@
       <c r="AU73">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="74" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA73">
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -3887,8 +4175,12 @@
       <c r="AM74">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="75" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA74">
+        <f t="shared" si="1"/>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -3928,8 +4220,12 @@
       <c r="AU75">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="76" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA75">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -3960,8 +4256,12 @@
       <c r="AZ76">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="77" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA76">
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -3992,8 +4292,12 @@
       <c r="AM77">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="78" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA77">
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -4030,8 +4334,12 @@
       <c r="AZ78">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="79" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA78">
+        <f t="shared" si="1"/>
+        <v>1.3419999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -4074,8 +4382,12 @@
       <c r="AZ79">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="80" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA79">
+        <f t="shared" si="1"/>
+        <v>16.402000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>84</v>
       </c>
@@ -4106,8 +4418,12 @@
       <c r="U80">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="81" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA80">
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>85</v>
       </c>
@@ -4135,8 +4451,12 @@
       <c r="I81">
         <v>109.5</v>
       </c>
-    </row>
-    <row r="82" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>86</v>
       </c>
@@ -4164,8 +4484,12 @@
       <c r="I82">
         <v>98.35</v>
       </c>
-    </row>
-    <row r="83" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>87</v>
       </c>
@@ -4193,8 +4517,12 @@
       <c r="I83">
         <v>90.53</v>
       </c>
-    </row>
-    <row r="84" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA83">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>88</v>
       </c>
@@ -4228,8 +4556,12 @@
       <c r="AM84">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="85" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA84">
+        <f t="shared" si="1"/>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>89</v>
       </c>
@@ -4263,8 +4595,12 @@
       <c r="AJ85">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="86" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA85">
+        <f t="shared" si="1"/>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>90</v>
       </c>
@@ -4295,8 +4631,12 @@
       <c r="AB86">
         <v>1.23</v>
       </c>
-    </row>
-    <row r="87" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA86">
+        <f t="shared" si="1"/>
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>91</v>
       </c>
@@ -4333,8 +4673,12 @@
       <c r="AZ87">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="88" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA87">
+        <f t="shared" si="1"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>92</v>
       </c>
@@ -4374,8 +4718,12 @@
       <c r="AZ88">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="89" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="BA88">
+        <f t="shared" si="1"/>
+        <v>22.89</v>
+      </c>
+    </row>
+    <row r="89" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>93</v>
       </c>
@@ -4411,6 +4759,10 @@
       </c>
       <c r="AZ89">
         <v>0.3</v>
+      </c>
+      <c r="BA89">
+        <f t="shared" si="1"/>
+        <v>0.30199999999999999</v>
       </c>
     </row>
   </sheetData>
